--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H2">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I2">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J2">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04182166666666667</v>
+        <v>0.022818</v>
       </c>
       <c r="N2">
-        <v>0.125465</v>
+        <v>0.068454</v>
       </c>
       <c r="O2">
-        <v>0.00574831844561694</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="P2">
-        <v>0.00574831844561694</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="Q2">
-        <v>1.321755443169444</v>
+        <v>1.697341641894</v>
       </c>
       <c r="R2">
-        <v>11.895798988525</v>
+        <v>15.276074777046</v>
       </c>
       <c r="S2">
-        <v>0.0004306190509175482</v>
+        <v>0.0003331422026420636</v>
       </c>
       <c r="T2">
-        <v>0.0004306190509175482</v>
+        <v>0.0003331422026420635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H3">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I3">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J3">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.056501</v>
       </c>
       <c r="O3">
-        <v>0.002588656123188161</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="P3">
-        <v>0.002588656123188161</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="Q3">
-        <v>0.5952297795761111</v>
+        <v>1.400962691861</v>
       </c>
       <c r="R3">
-        <v>5.357068016185</v>
+        <v>12.608664226749</v>
       </c>
       <c r="S3">
-        <v>0.0001939218666233004</v>
+        <v>0.0002749710402822222</v>
       </c>
       <c r="T3">
-        <v>0.0001939218666233004</v>
+        <v>0.0002749710402822221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H4">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I4">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J4">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06050133333333333</v>
+        <v>0.5876446666666667</v>
       </c>
       <c r="N4">
-        <v>0.181504</v>
+        <v>1.762934</v>
       </c>
       <c r="O4">
-        <v>0.008315807525232193</v>
+        <v>0.06079715258652944</v>
       </c>
       <c r="P4">
-        <v>0.008315807525232193</v>
+        <v>0.06079715258652942</v>
       </c>
       <c r="Q4">
-        <v>1.912118120248889</v>
+        <v>43.712584949174</v>
       </c>
       <c r="R4">
-        <v>17.20906308224</v>
+        <v>393.413264542566</v>
       </c>
       <c r="S4">
-        <v>0.0006229552482185363</v>
+        <v>0.008579596749241589</v>
       </c>
       <c r="T4">
-        <v>0.0006229552482185363</v>
+        <v>0.008579596749241586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H5">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I5">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J5">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3872683333333333</v>
+        <v>0.3190376666666667</v>
       </c>
       <c r="N5">
-        <v>1.161805</v>
+        <v>0.9571130000000001</v>
       </c>
       <c r="O5">
-        <v>0.0532293875719124</v>
+        <v>0.03300733045227499</v>
       </c>
       <c r="P5">
-        <v>0.0532293875719124</v>
+        <v>0.03300733045227498</v>
       </c>
       <c r="Q5">
-        <v>12.23944592238056</v>
+        <v>23.731962352793</v>
       </c>
       <c r="R5">
-        <v>110.155013301425</v>
+        <v>213.587661175137</v>
       </c>
       <c r="S5">
-        <v>0.003987529322530284</v>
+        <v>0.004657941581169158</v>
       </c>
       <c r="T5">
-        <v>0.003987529322530284</v>
+        <v>0.004657941581169155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H6">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I6">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J6">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.767036</v>
+        <v>8.706946666666667</v>
       </c>
       <c r="N6">
-        <v>20.301108</v>
+        <v>26.12084</v>
       </c>
       <c r="O6">
-        <v>0.9301178303340504</v>
+        <v>0.900812336235118</v>
       </c>
       <c r="P6">
-        <v>0.9301178303340503</v>
+        <v>0.9008123362351179</v>
       </c>
       <c r="Q6">
-        <v>213.8692065625534</v>
+        <v>647.6756574232401</v>
       </c>
       <c r="R6">
-        <v>1924.82285906298</v>
+        <v>5829.08091680916</v>
       </c>
       <c r="S6">
-        <v>0.06967715187131587</v>
+        <v>0.1271211933920724</v>
       </c>
       <c r="T6">
-        <v>0.06967715187131586</v>
+        <v>0.1271211933920723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.7234976666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H7">
-        <v>305.170493</v>
+        <v>223.158249</v>
       </c>
       <c r="I7">
-        <v>0.2411148358650363</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J7">
-        <v>0.2411148358650363</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.04182166666666667</v>
+        <v>0.01038033333333333</v>
       </c>
       <c r="N7">
-        <v>0.125465</v>
+        <v>0.031141</v>
       </c>
       <c r="O7">
-        <v>0.00574831844561694</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="P7">
-        <v>0.00574831844561694</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="Q7">
-        <v>4.254246211582777</v>
+        <v>0.772152336901</v>
       </c>
       <c r="R7">
-        <v>38.28821590424499</v>
+        <v>6.949371032108999</v>
       </c>
       <c r="S7">
-        <v>0.001386004858514889</v>
+        <v>0.0001515525949174117</v>
       </c>
       <c r="T7">
-        <v>0.001386004858514889</v>
+        <v>0.0001515525949174117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>305.170493</v>
       </c>
       <c r="I8">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J8">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01883366666666667</v>
+        <v>0.022818</v>
       </c>
       <c r="N8">
-        <v>0.056501</v>
+        <v>0.068454</v>
       </c>
       <c r="O8">
-        <v>0.002588656123188161</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="P8">
-        <v>0.002588656123188161</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="Q8">
-        <v>1.915826447221444</v>
+        <v>2.321126769758</v>
       </c>
       <c r="R8">
-        <v>17.242438024993</v>
+        <v>20.890140927822</v>
       </c>
       <c r="S8">
-        <v>0.0006241633962535348</v>
+        <v>0.0004555743320041216</v>
       </c>
       <c r="T8">
-        <v>0.0006241633962535347</v>
+        <v>0.0004555743320041215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>305.170493</v>
       </c>
       <c r="I9">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J9">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.06050133333333333</v>
+        <v>0.01883366666666667</v>
       </c>
       <c r="N9">
-        <v>0.181504</v>
+        <v>0.056501</v>
       </c>
       <c r="O9">
-        <v>0.008315807525232193</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="P9">
-        <v>0.008315807525232193</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="Q9">
-        <v>6.154407240163555</v>
+        <v>1.915826447221445</v>
       </c>
       <c r="R9">
-        <v>55.389665161472</v>
+        <v>17.242438024993</v>
       </c>
       <c r="S9">
-        <v>0.002005064566531594</v>
+        <v>0.0003760248536618003</v>
       </c>
       <c r="T9">
-        <v>0.002005064566531594</v>
+        <v>0.0003760248536618002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>305.170493</v>
       </c>
       <c r="I10">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J10">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3872683333333333</v>
+        <v>0.5876446666666667</v>
       </c>
       <c r="N10">
-        <v>1.161805</v>
+        <v>1.762934</v>
       </c>
       <c r="O10">
-        <v>0.0532293875719124</v>
+        <v>0.06079715258652944</v>
       </c>
       <c r="P10">
-        <v>0.0532293875719124</v>
+        <v>0.06079715258652942</v>
       </c>
       <c r="Q10">
-        <v>39.39428940220722</v>
+        <v>59.77727087849578</v>
       </c>
       <c r="R10">
-        <v>354.5486046198649</v>
+        <v>537.9954379064619</v>
       </c>
       <c r="S10">
-        <v>0.01283439504759806</v>
+        <v>0.01173265958771371</v>
       </c>
       <c r="T10">
-        <v>0.01283439504759806</v>
+        <v>0.0117326595877137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>305.170493</v>
       </c>
       <c r="I11">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J11">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.767036</v>
+        <v>0.3190376666666667</v>
       </c>
       <c r="N11">
-        <v>20.301108</v>
+        <v>0.9571130000000001</v>
       </c>
       <c r="O11">
-        <v>0.9301178303340504</v>
+        <v>0.03300733045227499</v>
       </c>
       <c r="P11">
-        <v>0.9301178303340503</v>
+        <v>0.03300733045227498</v>
       </c>
       <c r="Q11">
-        <v>688.3665707562493</v>
+        <v>32.45362734074545</v>
       </c>
       <c r="R11">
-        <v>6195.299136806243</v>
+        <v>292.082646066709</v>
       </c>
       <c r="S11">
-        <v>0.2242652079961382</v>
+        <v>0.00636976824769131</v>
       </c>
       <c r="T11">
-        <v>0.2242652079961382</v>
+        <v>0.006369768247691308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.55512366666666</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H12">
-        <v>226.665371</v>
+        <v>305.170493</v>
       </c>
       <c r="I12">
-        <v>0.179088034323661</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J12">
-        <v>0.179088034323661</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04182166666666667</v>
+        <v>8.706946666666667</v>
       </c>
       <c r="N12">
-        <v>0.125465</v>
+        <v>26.12084</v>
       </c>
       <c r="O12">
-        <v>0.00574831844561694</v>
+        <v>0.900812336235118</v>
       </c>
       <c r="P12">
-        <v>0.00574831844561694</v>
+        <v>0.9008123362351179</v>
       </c>
       <c r="Q12">
-        <v>3.159841196946111</v>
+        <v>885.7010689304577</v>
       </c>
       <c r="R12">
-        <v>28.438570772515</v>
+        <v>7971.30962037412</v>
       </c>
       <c r="S12">
-        <v>0.00102945505109198</v>
+        <v>0.1738391362723368</v>
       </c>
       <c r="T12">
-        <v>0.00102945505109198</v>
+        <v>0.1738391362723367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.55512366666666</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H13">
-        <v>226.665371</v>
+        <v>305.170493</v>
       </c>
       <c r="I13">
-        <v>0.179088034323661</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J13">
-        <v>0.179088034323661</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01883366666666667</v>
+        <v>0.01038033333333333</v>
       </c>
       <c r="N13">
-        <v>0.056501</v>
+        <v>0.031141</v>
       </c>
       <c r="O13">
-        <v>0.002588656123188161</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="P13">
-        <v>0.002588656123188161</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="Q13">
-        <v>1.422980014096777</v>
+        <v>1.055923813612555</v>
       </c>
       <c r="R13">
-        <v>12.806820126871</v>
+        <v>9.503314322512999</v>
       </c>
       <c r="S13">
-        <v>0.0004635973366416768</v>
+        <v>0.0002072492516571764</v>
       </c>
       <c r="T13">
-        <v>0.0004635973366416768</v>
+        <v>0.0002072492516571763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H14">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I14">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J14">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.06050133333333333</v>
+        <v>0.022818</v>
       </c>
       <c r="N14">
-        <v>0.181504</v>
+        <v>0.068454</v>
       </c>
       <c r="O14">
-        <v>0.008315807525232193</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="P14">
-        <v>0.008315807525232193</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="Q14">
-        <v>4.571185721998222</v>
+        <v>2.43725005892</v>
       </c>
       <c r="R14">
-        <v>41.140671497984</v>
+        <v>21.93525053028</v>
       </c>
       <c r="S14">
-        <v>0.001489261623507742</v>
+        <v>0.000478366189208722</v>
       </c>
       <c r="T14">
-        <v>0.001489261623507742</v>
+        <v>0.0004783661892087219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H15">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I15">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J15">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.3872683333333333</v>
+        <v>0.01883366666666667</v>
       </c>
       <c r="N15">
-        <v>1.161805</v>
+        <v>0.056501</v>
       </c>
       <c r="O15">
-        <v>0.0532293875719124</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="P15">
-        <v>0.0532293875719124</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="Q15">
-        <v>29.26010681718389</v>
+        <v>2.011673029757778</v>
       </c>
       <c r="R15">
-        <v>263.340961354655</v>
+        <v>18.10505726782</v>
       </c>
       <c r="S15">
-        <v>0.009532746388506104</v>
+        <v>0.0003948369424209251</v>
       </c>
       <c r="T15">
-        <v>0.009532746388506104</v>
+        <v>0.000394836942420925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H16">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I16">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J16">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.767036</v>
+        <v>0.5876446666666667</v>
       </c>
       <c r="N16">
-        <v>20.301108</v>
+        <v>1.762934</v>
       </c>
       <c r="O16">
-        <v>0.9301178303340504</v>
+        <v>0.06079715258652944</v>
       </c>
       <c r="P16">
-        <v>0.9301178303340503</v>
+        <v>0.06079715258652942</v>
       </c>
       <c r="Q16">
-        <v>511.2842418367853</v>
+        <v>62.76785864043111</v>
       </c>
       <c r="R16">
-        <v>4601.558176531068</v>
+        <v>564.91072776388</v>
       </c>
       <c r="S16">
-        <v>0.1665729739239136</v>
+        <v>0.01231963098440543</v>
       </c>
       <c r="T16">
-        <v>0.1665729739239135</v>
+        <v>0.01231963098440542</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.49196966666667</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H17">
-        <v>145.475909</v>
+        <v>320.43782</v>
       </c>
       <c r="I17">
-        <v>0.114940339008634</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J17">
-        <v>0.114940339008634</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04182166666666667</v>
+        <v>0.3190376666666667</v>
       </c>
       <c r="N17">
-        <v>0.125465</v>
+        <v>0.9571130000000001</v>
       </c>
       <c r="O17">
-        <v>0.00574831844561694</v>
+        <v>0.03300733045227499</v>
       </c>
       <c r="P17">
-        <v>0.00574831844561694</v>
+        <v>0.03300733045227498</v>
       </c>
       <c r="Q17">
-        <v>2.028014991409445</v>
+        <v>34.07724480151779</v>
       </c>
       <c r="R17">
-        <v>18.252134922685</v>
+        <v>306.69520321366</v>
       </c>
       <c r="S17">
-        <v>0.000660713670868795</v>
+        <v>0.006688440389927946</v>
       </c>
       <c r="T17">
-        <v>0.0006607136708687949</v>
+        <v>0.006688440389927944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.49196966666667</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H18">
-        <v>145.475909</v>
+        <v>320.43782</v>
       </c>
       <c r="I18">
-        <v>0.114940339008634</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J18">
-        <v>0.114940339008634</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01883366666666667</v>
+        <v>8.706946666666667</v>
       </c>
       <c r="N18">
-        <v>0.056501</v>
+        <v>26.12084</v>
       </c>
       <c r="O18">
-        <v>0.002588656123188161</v>
+        <v>0.900812336235118</v>
       </c>
       <c r="P18">
-        <v>0.002588656123188161</v>
+        <v>0.9008123362351179</v>
       </c>
       <c r="Q18">
-        <v>0.9132815927121111</v>
+        <v>930.0116695743112</v>
       </c>
       <c r="R18">
-        <v>8.219534334408999</v>
+        <v>8370.1050261688</v>
       </c>
       <c r="S18">
-        <v>0.0002975410123760235</v>
+        <v>0.1825361073090069</v>
       </c>
       <c r="T18">
-        <v>0.0002975410123760234</v>
+        <v>0.1825361073090068</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>48.49196966666667</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H19">
-        <v>145.475909</v>
+        <v>320.43782</v>
       </c>
       <c r="I19">
-        <v>0.114940339008634</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J19">
-        <v>0.114940339008634</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.06050133333333333</v>
+        <v>0.01038033333333333</v>
       </c>
       <c r="N19">
-        <v>0.181504</v>
+        <v>0.031141</v>
       </c>
       <c r="O19">
-        <v>0.008315807525232193</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="P19">
-        <v>0.008315807525232193</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="Q19">
-        <v>2.933828820792889</v>
+        <v>1.108750461402222</v>
       </c>
       <c r="R19">
-        <v>26.404459387136</v>
+        <v>9.978754152619999</v>
       </c>
       <c r="S19">
-        <v>0.0009558217360807378</v>
+        <v>0.0002176176921458032</v>
       </c>
       <c r="T19">
-        <v>0.0009558217360807377</v>
+        <v>0.0002176176921458031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H20">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I20">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J20">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.3872683333333333</v>
+        <v>0.022818</v>
       </c>
       <c r="N20">
-        <v>1.161805</v>
+        <v>0.068454</v>
       </c>
       <c r="O20">
-        <v>0.0532293875719124</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="P20">
-        <v>0.0532293875719124</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="Q20">
-        <v>18.77940427286056</v>
+        <v>1.045519109498</v>
       </c>
       <c r="R20">
-        <v>169.014638455745</v>
+        <v>9.409671985482001</v>
       </c>
       <c r="S20">
-        <v>0.006118203852737579</v>
+        <v>0.0002052070899844715</v>
       </c>
       <c r="T20">
-        <v>0.006118203852737578</v>
+        <v>0.0002052070899844714</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H21">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I21">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J21">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>6.767036</v>
+        <v>0.01883366666666667</v>
       </c>
       <c r="N21">
-        <v>20.301108</v>
+        <v>0.056501</v>
       </c>
       <c r="O21">
-        <v>0.9301178303340504</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="P21">
-        <v>0.9301178303340503</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="Q21">
-        <v>328.1469044452414</v>
+        <v>0.8629572443647779</v>
       </c>
       <c r="R21">
-        <v>2953.322140007172</v>
+        <v>7.766615199283001</v>
       </c>
       <c r="S21">
-        <v>0.1069080587365709</v>
+        <v>0.0001693751393813747</v>
       </c>
       <c r="T21">
-        <v>0.1069080587365708</v>
+        <v>0.0001693751393813747</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>93.51473466666668</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H22">
-        <v>280.544204</v>
+        <v>137.459783</v>
       </c>
       <c r="I22">
-        <v>0.2216576348367576</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J22">
-        <v>0.2216576348367575</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.04182166666666667</v>
+        <v>0.5876446666666667</v>
       </c>
       <c r="N22">
-        <v>0.125465</v>
+        <v>1.762934</v>
       </c>
       <c r="O22">
-        <v>0.00574831844561694</v>
+        <v>0.06079715258652944</v>
       </c>
       <c r="P22">
-        <v>0.00574831844561694</v>
+        <v>0.06079715258652942</v>
       </c>
       <c r="Q22">
-        <v>3.910942061651112</v>
+        <v>26.92583612036912</v>
       </c>
       <c r="R22">
-        <v>35.19847855486</v>
+        <v>242.332525083322</v>
       </c>
       <c r="S22">
-        <v>0.001274158670943958</v>
+        <v>0.005284812516064573</v>
       </c>
       <c r="T22">
-        <v>0.001274158670943957</v>
+        <v>0.005284812516064571</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>93.51473466666668</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H23">
-        <v>280.544204</v>
+        <v>137.459783</v>
       </c>
       <c r="I23">
-        <v>0.2216576348367576</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J23">
-        <v>0.2216576348367575</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.01883366666666667</v>
+        <v>0.3190376666666667</v>
       </c>
       <c r="N23">
-        <v>0.056501</v>
+        <v>0.9571130000000001</v>
       </c>
       <c r="O23">
-        <v>0.002588656123188161</v>
+        <v>0.03300733045227499</v>
       </c>
       <c r="P23">
-        <v>0.002588656123188161</v>
+        <v>0.03300733045227498</v>
       </c>
       <c r="Q23">
-        <v>1.761225341133778</v>
+        <v>14.61828280960878</v>
       </c>
       <c r="R23">
-        <v>15.851028070204</v>
+        <v>131.564545286479</v>
       </c>
       <c r="S23">
-        <v>0.000573795393671578</v>
+        <v>0.002869173072666426</v>
       </c>
       <c r="T23">
-        <v>0.000573795393671578</v>
+        <v>0.002869173072666425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>93.51473466666668</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H24">
-        <v>280.544204</v>
+        <v>137.459783</v>
       </c>
       <c r="I24">
-        <v>0.2216576348367576</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J24">
-        <v>0.2216576348367575</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.06050133333333333</v>
+        <v>8.706946666666667</v>
       </c>
       <c r="N24">
-        <v>0.181504</v>
+        <v>26.12084</v>
       </c>
       <c r="O24">
-        <v>0.008315807525232193</v>
+        <v>0.900812336235118</v>
       </c>
       <c r="P24">
-        <v>0.008315807525232193</v>
+        <v>0.9008123362351179</v>
       </c>
       <c r="Q24">
-        <v>5.657766133646223</v>
+        <v>398.9516664641912</v>
       </c>
       <c r="R24">
-        <v>50.91989520281601</v>
+        <v>3590.564998177721</v>
       </c>
       <c r="S24">
-        <v>0.001843262227800678</v>
+        <v>0.0783034090681331</v>
       </c>
       <c r="T24">
-        <v>0.001843262227800678</v>
+        <v>0.07830340906813307</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>93.51473466666668</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H25">
-        <v>280.544204</v>
+        <v>137.459783</v>
       </c>
       <c r="I25">
-        <v>0.2216576348367576</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J25">
-        <v>0.2216576348367575</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.3872683333333333</v>
+        <v>0.01038033333333333</v>
       </c>
       <c r="N25">
-        <v>1.161805</v>
+        <v>0.031141</v>
       </c>
       <c r="O25">
-        <v>0.0532293875719124</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="P25">
-        <v>0.0532293875719124</v>
+        <v>0.001073939312927831</v>
       </c>
       <c r="Q25">
-        <v>36.21529543646889</v>
+        <v>0.4756261224892223</v>
       </c>
       <c r="R25">
-        <v>325.9376589282201</v>
+        <v>4.280635102403</v>
       </c>
       <c r="S25">
-        <v>0.0117987001529992</v>
+        <v>9.335252854773172E-05</v>
       </c>
       <c r="T25">
-        <v>0.0117987001529992</v>
+        <v>9.335252854773167E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H26">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I26">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J26">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.767036</v>
+        <v>0.022818</v>
       </c>
       <c r="N26">
-        <v>20.301108</v>
+        <v>0.068454</v>
       </c>
       <c r="O26">
-        <v>0.9301178303340504</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="P26">
-        <v>0.9301178303340503</v>
+        <v>0.002360728355774116</v>
       </c>
       <c r="Q26">
-        <v>632.8175760197814</v>
+        <v>2.274802373516</v>
       </c>
       <c r="R26">
-        <v>5695.358184178032</v>
+        <v>20.473221361644</v>
       </c>
       <c r="S26">
-        <v>0.2061677183913422</v>
+        <v>0.0004464821074223322</v>
       </c>
       <c r="T26">
-        <v>0.2061677183913421</v>
+        <v>0.000446482107422332</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>70.99828599999999</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H27">
-        <v>212.994858</v>
+        <v>299.079986</v>
       </c>
       <c r="I27">
-        <v>0.1682869786063055</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J27">
-        <v>0.1682869786063056</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.04182166666666667</v>
+        <v>0.01883366666666667</v>
       </c>
       <c r="N27">
-        <v>0.125465</v>
+        <v>0.056501</v>
       </c>
       <c r="O27">
-        <v>0.00574831844561694</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="P27">
-        <v>0.00574831844561694</v>
+        <v>0.001948513057375659</v>
       </c>
       <c r="Q27">
-        <v>2.969266650996667</v>
+        <v>1.877590920998445</v>
       </c>
       <c r="R27">
-        <v>26.72339985897</v>
+        <v>16.898318288986</v>
       </c>
       <c r="S27">
-        <v>0.0009673671432797695</v>
+        <v>0.0003685202552293393</v>
       </c>
       <c r="T27">
-        <v>0.0009673671432797696</v>
+        <v>0.0003685202552293392</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>70.99828599999999</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H28">
-        <v>212.994858</v>
+        <v>299.079986</v>
       </c>
       <c r="I28">
-        <v>0.1682869786063055</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J28">
-        <v>0.1682869786063056</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01883366666666667</v>
+        <v>0.5876446666666667</v>
       </c>
       <c r="N28">
-        <v>0.056501</v>
+        <v>1.762934</v>
       </c>
       <c r="O28">
-        <v>0.002588656123188161</v>
+        <v>0.06079715258652944</v>
       </c>
       <c r="P28">
-        <v>0.002588656123188161</v>
+        <v>0.06079715258652942</v>
       </c>
       <c r="Q28">
-        <v>1.337158052428666</v>
+        <v>58.58425289321379</v>
       </c>
       <c r="R28">
-        <v>12.034422471858</v>
+        <v>527.258276038924</v>
       </c>
       <c r="S28">
-        <v>0.000435637117622048</v>
+        <v>0.01149850246247819</v>
       </c>
       <c r="T28">
-        <v>0.000435637117622048</v>
+        <v>0.01149850246247818</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>70.99828599999999</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H29">
-        <v>212.994858</v>
+        <v>299.079986</v>
       </c>
       <c r="I29">
-        <v>0.1682869786063055</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J29">
-        <v>0.1682869786063056</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.06050133333333333</v>
+        <v>0.3190376666666667</v>
       </c>
       <c r="N29">
-        <v>0.181504</v>
+        <v>0.9571130000000001</v>
       </c>
       <c r="O29">
-        <v>0.008315807525232193</v>
+        <v>0.03300733045227499</v>
       </c>
       <c r="P29">
-        <v>0.008315807525232193</v>
+        <v>0.03300733045227498</v>
       </c>
       <c r="Q29">
-        <v>4.295490967381332</v>
+        <v>31.80592696004645</v>
       </c>
       <c r="R29">
-        <v>38.659418706432</v>
+        <v>286.2533426404181</v>
       </c>
       <c r="S29">
-        <v>0.001399442123092905</v>
+        <v>0.006242642201789679</v>
       </c>
       <c r="T29">
-        <v>0.001399442123092905</v>
+        <v>0.006242642201789677</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>70.99828599999999</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H30">
-        <v>212.994858</v>
+        <v>299.079986</v>
       </c>
       <c r="I30">
-        <v>0.1682869786063055</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J30">
-        <v>0.1682869786063056</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,90 +2297,462 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3872683333333333</v>
+        <v>8.706946666666667</v>
       </c>
       <c r="N30">
-        <v>1.161805</v>
+        <v>26.12084</v>
       </c>
       <c r="O30">
-        <v>0.0532293875719124</v>
+        <v>0.900812336235118</v>
       </c>
       <c r="P30">
-        <v>0.0532293875719124</v>
+        <v>0.9008123362351179</v>
       </c>
       <c r="Q30">
-        <v>27.49538788874333</v>
+        <v>868.0244957231379</v>
       </c>
       <c r="R30">
-        <v>247.45849099869</v>
+        <v>7812.220461508241</v>
       </c>
       <c r="S30">
-        <v>0.008957812807541167</v>
+        <v>0.1703697036088695</v>
       </c>
       <c r="T30">
-        <v>0.008957812807541168</v>
+        <v>0.1703697036088694</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>99.69332866666667</v>
+      </c>
+      <c r="H31">
+        <v>299.079986</v>
+      </c>
+      <c r="I31">
+        <v>0.1891289636650823</v>
+      </c>
+      <c r="J31">
+        <v>0.1891289636650822</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.01038033333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.031141</v>
+      </c>
+      <c r="O31">
+        <v>0.001073939312927831</v>
+      </c>
+      <c r="P31">
+        <v>0.001073939312927831</v>
+      </c>
+      <c r="Q31">
+        <v>1.034849982669556</v>
+      </c>
+      <c r="R31">
+        <v>9.313649844026001</v>
+      </c>
+      <c r="S31">
+        <v>0.0002031130292932312</v>
+      </c>
+      <c r="T31">
+        <v>0.0002031130292932311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>98.68280800000001</v>
+      </c>
+      <c r="H32">
+        <v>296.048424</v>
+      </c>
+      <c r="I32">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="J32">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.022818</v>
+      </c>
+      <c r="N32">
+        <v>0.068454</v>
+      </c>
+      <c r="O32">
+        <v>0.002360728355774116</v>
+      </c>
+      <c r="P32">
+        <v>0.002360728355774116</v>
+      </c>
+      <c r="Q32">
+        <v>2.251744312944</v>
+      </c>
+      <c r="R32">
+        <v>20.265698816496</v>
+      </c>
+      <c r="S32">
+        <v>0.0004419564345124055</v>
+      </c>
+      <c r="T32">
+        <v>0.0004419564345124053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>98.68280800000001</v>
+      </c>
+      <c r="H33">
+        <v>296.048424</v>
+      </c>
+      <c r="I33">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="J33">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01883366666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.056501</v>
+      </c>
+      <c r="O33">
+        <v>0.001948513057375659</v>
+      </c>
+      <c r="P33">
+        <v>0.001948513057375659</v>
+      </c>
+      <c r="Q33">
+        <v>1.858559111602667</v>
+      </c>
+      <c r="R33">
+        <v>16.727032004424</v>
+      </c>
+      <c r="S33">
+        <v>0.0003647848263999974</v>
+      </c>
+      <c r="T33">
+        <v>0.0003647848263999973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>98.68280800000001</v>
+      </c>
+      <c r="H34">
+        <v>296.048424</v>
+      </c>
+      <c r="I34">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="J34">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5876446666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.762934</v>
+      </c>
+      <c r="O34">
+        <v>0.06079715258652944</v>
+      </c>
+      <c r="P34">
+        <v>0.06079715258652942</v>
+      </c>
+      <c r="Q34">
+        <v>57.99042581289068</v>
+      </c>
+      <c r="R34">
+        <v>521.9138323160161</v>
+      </c>
+      <c r="S34">
+        <v>0.01138195028662595</v>
+      </c>
+      <c r="T34">
+        <v>0.01138195028662595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>98.68280800000001</v>
+      </c>
+      <c r="H35">
+        <v>296.048424</v>
+      </c>
+      <c r="I35">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="J35">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3190376666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.9571130000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.03300733045227499</v>
+      </c>
+      <c r="P35">
+        <v>0.03300733045227498</v>
+      </c>
+      <c r="Q35">
+        <v>31.48353280443467</v>
+      </c>
+      <c r="R35">
+        <v>283.3517952399121</v>
+      </c>
+      <c r="S35">
+        <v>0.006179364959030473</v>
+      </c>
+      <c r="T35">
+        <v>0.006179364959030471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>70.99828599999999</v>
-      </c>
-      <c r="H31">
-        <v>212.994858</v>
-      </c>
-      <c r="I31">
-        <v>0.1682869786063055</v>
-      </c>
-      <c r="J31">
-        <v>0.1682869786063056</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>6.767036</v>
-      </c>
-      <c r="N31">
-        <v>20.301108</v>
-      </c>
-      <c r="O31">
-        <v>0.9301178303340504</v>
-      </c>
-      <c r="P31">
-        <v>0.9301178303340503</v>
-      </c>
-      <c r="Q31">
-        <v>480.447957300296</v>
-      </c>
-      <c r="R31">
-        <v>4324.031615702664</v>
-      </c>
-      <c r="S31">
-        <v>0.1565267194147697</v>
-      </c>
-      <c r="T31">
-        <v>0.1565267194147697</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>98.68280800000001</v>
+      </c>
+      <c r="H36">
+        <v>296.048424</v>
+      </c>
+      <c r="I36">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="J36">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>8.706946666666667</v>
+      </c>
+      <c r="N36">
+        <v>26.12084</v>
+      </c>
+      <c r="O36">
+        <v>0.900812336235118</v>
+      </c>
+      <c r="P36">
+        <v>0.9008123362351179</v>
+      </c>
+      <c r="Q36">
+        <v>859.2259461729068</v>
+      </c>
+      <c r="R36">
+        <v>7733.033515556161</v>
+      </c>
+      <c r="S36">
+        <v>0.1686427865846995</v>
+      </c>
+      <c r="T36">
+        <v>0.1686427865846995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>98.68280800000001</v>
+      </c>
+      <c r="H37">
+        <v>296.048424</v>
+      </c>
+      <c r="I37">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="J37">
+        <v>0.1872118973076348</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.01038033333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.031141</v>
+      </c>
+      <c r="O37">
+        <v>0.001073939312927831</v>
+      </c>
+      <c r="P37">
+        <v>0.001073939312927831</v>
+      </c>
+      <c r="Q37">
+        <v>1.024360441309333</v>
+      </c>
+      <c r="R37">
+        <v>9.219243971784</v>
+      </c>
+      <c r="S37">
+        <v>0.000201054216366477</v>
+      </c>
+      <c r="T37">
+        <v>0.0002010542163664769</v>
       </c>
     </row>
   </sheetData>
